--- a/simulation_results.xlsx
+++ b/simulation_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="17">
   <si>
     <t>Model</t>
   </si>
@@ -52,7 +52,13 @@
     <t>TD3-CL</t>
   </si>
   <si>
-    <t>TD3-PER</t>
+    <t>TD3-CL-15</t>
+  </si>
+  <si>
+    <t>TD3</t>
+  </si>
+  <si>
+    <t>TD3-cf</t>
   </si>
   <si>
     <t>Krauss</t>
@@ -416,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,28 +471,28 @@
         <v>100</v>
       </c>
       <c r="D2">
-        <v>22.01732673267327</v>
+        <v>22.01980198019802</v>
       </c>
       <c r="E2">
         <v>6</v>
       </c>
       <c r="F2">
-        <v>2072.63751330693</v>
+        <v>2073.205335267326</v>
       </c>
       <c r="G2">
-        <v>157835.359575099</v>
+        <v>157868.6984868317</v>
       </c>
       <c r="H2">
-        <v>13.38363054455445</v>
+        <v>13.38806969306931</v>
       </c>
       <c r="I2">
-        <v>3.38062586138614</v>
+        <v>3.381698267326733</v>
       </c>
       <c r="J2">
-        <v>67.20583398019802</v>
+        <v>67.21832667326731</v>
       </c>
       <c r="K2">
-        <v>50340.22526493068</v>
+        <v>50350.85802278218</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -500,28 +506,28 @@
         <v>125</v>
       </c>
       <c r="D3">
-        <v>22.13372093023256</v>
+        <v>22.13565891472868</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
       <c r="F3">
-        <v>2080.190254868217</v>
+        <v>2081.313353767442</v>
       </c>
       <c r="G3">
-        <v>158297.8181469612</v>
+        <v>158365.5609761317</v>
       </c>
       <c r="H3">
-        <v>13.43350758914729</v>
+        <v>13.43990150387596</v>
       </c>
       <c r="I3">
-        <v>3.388779992248062</v>
+        <v>3.390271263565892</v>
       </c>
       <c r="J3">
-        <v>67.41509806976745</v>
+        <v>67.4402236821706</v>
       </c>
       <c r="K3">
-        <v>50487.72340938759</v>
+        <v>50509.32833302324</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -535,28 +541,28 @@
         <v>150</v>
       </c>
       <c r="D4">
-        <v>22.11601307189542</v>
+        <v>22.11764705882353</v>
       </c>
       <c r="E4">
         <v>8</v>
       </c>
       <c r="F4">
-        <v>2079.758455477124</v>
+        <v>2079.749060326797</v>
       </c>
       <c r="G4">
-        <v>158250.4332118758</v>
+        <v>158267.0507042288</v>
       </c>
       <c r="H4">
-        <v>13.43172841830065</v>
+        <v>13.43234758823529</v>
       </c>
       <c r="I4">
-        <v>3.38881774509804</v>
+        <v>3.389073986928105</v>
       </c>
       <c r="J4">
-        <v>67.40469237908498</v>
+        <v>67.41052360784316</v>
       </c>
       <c r="K4">
-        <v>50472.61415599348</v>
+        <v>50477.91377605229</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -570,28 +576,28 @@
         <v>175</v>
       </c>
       <c r="D5">
-        <v>22.09887005649718</v>
+        <v>22.09039548022599</v>
       </c>
       <c r="E5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>2086.512749451977</v>
+        <v>2085.966344457626</v>
       </c>
       <c r="G5">
-        <v>158595.5112393899</v>
+        <v>158539.0292564294</v>
       </c>
       <c r="H5">
-        <v>13.47474174011299</v>
+        <v>13.47212398870056</v>
       </c>
       <c r="I5">
-        <v>3.399116553672316</v>
+        <v>3.398357248587572</v>
       </c>
       <c r="J5">
-        <v>67.55312228248589</v>
+        <v>67.53565598870058</v>
       </c>
       <c r="K5">
-        <v>50582.67555970058</v>
+        <v>50564.66334620335</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -605,28 +611,28 @@
         <v>200</v>
       </c>
       <c r="D6">
-        <v>22.1371359223301</v>
+        <v>22.13956310679612</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F6">
-        <v>2090.353349033979</v>
+        <v>2090.26800685437</v>
       </c>
       <c r="G6">
-        <v>158660.4914464854</v>
+        <v>158724.7025719903</v>
       </c>
       <c r="H6">
-        <v>13.49422995145631</v>
+        <v>13.49570052912622</v>
       </c>
       <c r="I6">
-        <v>3.400753951456311</v>
+        <v>3.401913378640778</v>
       </c>
       <c r="J6">
-        <v>67.608962092233</v>
+        <v>67.63479066990291</v>
       </c>
       <c r="K6">
-        <v>50603.40830108739</v>
+        <v>50623.88738696117</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -640,28 +646,28 @@
         <v>250</v>
       </c>
       <c r="D7">
-        <v>22.2685546875</v>
+        <v>22.26953125</v>
       </c>
       <c r="E7">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7">
-        <v>2102.283944636718</v>
+        <v>2100.493145113281</v>
       </c>
       <c r="G7">
-        <v>159351.4799780664</v>
+        <v>159246.3396182618</v>
       </c>
       <c r="H7">
-        <v>13.57616901562501</v>
+        <v>13.5646874296875</v>
       </c>
       <c r="I7">
-        <v>3.41496915625</v>
+        <v>3.412519636718747</v>
       </c>
       <c r="J7">
-        <v>67.91916429296873</v>
+        <v>67.86816641015623</v>
       </c>
       <c r="K7">
-        <v>50823.79487513284</v>
+        <v>50790.25944439453</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -675,28 +681,28 @@
         <v>300</v>
       </c>
       <c r="D8">
-        <v>22.34818481848185</v>
+        <v>22.34488448844884</v>
       </c>
       <c r="E8">
         <v>26</v>
       </c>
       <c r="F8">
-        <v>2106.90685870957</v>
+        <v>2104.803330712871</v>
       </c>
       <c r="G8">
-        <v>159691.6394917162</v>
+        <v>159589.8349039074</v>
       </c>
       <c r="H8">
-        <v>13.6060979009901</v>
+        <v>13.59307714191419</v>
       </c>
       <c r="I8">
-        <v>3.421106640264028</v>
+        <v>3.418012095709571</v>
       </c>
       <c r="J8">
-        <v>68.08758766336629</v>
+        <v>68.03254765346537</v>
       </c>
       <c r="K8">
-        <v>50932.29186008581</v>
+        <v>50899.81816981187</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -710,28 +716,28 @@
         <v>350</v>
       </c>
       <c r="D9">
-        <v>22.42642857142857</v>
+        <v>22.42</v>
       </c>
       <c r="E9">
         <v>42</v>
       </c>
       <c r="F9">
-        <v>2135.623508665714</v>
+        <v>2132.121036251428</v>
       </c>
       <c r="G9">
-        <v>160853.4339441345</v>
+        <v>160789.1780317458</v>
       </c>
       <c r="H9">
-        <v>13.77713565714286</v>
+        <v>13.75851084285714</v>
       </c>
       <c r="I9">
-        <v>3.456578402857144</v>
+        <v>3.453073705714285</v>
       </c>
       <c r="J9">
-        <v>68.67135625428568</v>
+        <v>68.62716945999995</v>
       </c>
       <c r="K9">
-        <v>51302.86589657715</v>
+        <v>51282.36614956571</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -745,28 +751,28 @@
         <v>400</v>
       </c>
       <c r="D10">
-        <v>22.50995024875622</v>
+        <v>22.48072139303483</v>
       </c>
       <c r="E10">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F10">
-        <v>2149.263013358207</v>
+        <v>2143.241815437812</v>
       </c>
       <c r="G10">
-        <v>161506.6356650598</v>
+        <v>161254.157890913</v>
       </c>
       <c r="H10">
-        <v>13.8597008159204</v>
+        <v>13.8264863034826</v>
       </c>
       <c r="I10">
-        <v>3.472183335820898</v>
+        <v>3.466265629353236</v>
       </c>
       <c r="J10">
-        <v>68.97678027363183</v>
+        <v>68.85727737562186</v>
       </c>
       <c r="K10">
-        <v>51511.20624195776</v>
+        <v>51430.67762420645</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +792,22 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2709.985239247524</v>
+        <v>2709.985542376237</v>
       </c>
       <c r="G11">
-        <v>173836.5640780792</v>
+        <v>173836.5886620989</v>
       </c>
       <c r="H11">
-        <v>16.91242934653466</v>
+        <v>16.91243131683169</v>
       </c>
       <c r="I11">
-        <v>4.134920940594059</v>
+        <v>4.134921465346535</v>
       </c>
       <c r="J11">
-        <v>75.69433561386137</v>
+        <v>75.69434804950495</v>
       </c>
       <c r="K11">
-        <v>55444.345722901</v>
+        <v>55444.35356442576</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +827,22 @@
         <v>4</v>
       </c>
       <c r="F12">
-        <v>2727.191523844962</v>
+        <v>2727.190818201551</v>
       </c>
       <c r="G12">
-        <v>174631.5238888449</v>
+        <v>174631.5018779147</v>
       </c>
       <c r="H12">
-        <v>17.01479975193799</v>
+        <v>17.01479579844961</v>
       </c>
       <c r="I12">
-        <v>4.156694906976744</v>
+        <v>4.156694139534884</v>
       </c>
       <c r="J12">
-        <v>76.10450264341085</v>
+        <v>76.10449300000002</v>
       </c>
       <c r="K12">
-        <v>55697.91392444959</v>
+        <v>55697.90690403099</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2730.532769313726</v>
+        <v>2730.529702457517</v>
       </c>
       <c r="G13">
-        <v>174883.1053689215</v>
+        <v>174882.956375536</v>
       </c>
       <c r="H13">
-        <v>17.03275866013072</v>
+        <v>17.03274069281046</v>
       </c>
       <c r="I13">
-        <v>4.160115862745099</v>
+        <v>4.160111581699348</v>
       </c>
       <c r="J13">
-        <v>76.23252811764711</v>
+        <v>76.23245783006536</v>
       </c>
       <c r="K13">
-        <v>55778.1591403137</v>
+        <v>55778.11161763396</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +897,22 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>2727.90442243503</v>
+        <v>2727.902168062149</v>
       </c>
       <c r="G14">
-        <v>174647.9437234972</v>
+        <v>174647.8384263955</v>
       </c>
       <c r="H14">
-        <v>17.0165044180791</v>
+        <v>17.01649141242936</v>
       </c>
       <c r="I14">
-        <v>4.157195536723162</v>
+        <v>4.157192536723163</v>
       </c>
       <c r="J14">
-        <v>76.13318905084751</v>
+        <v>76.1331393389831</v>
       </c>
       <c r="K14">
-        <v>55703.15798258756</v>
+        <v>55703.12439719774</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +932,22 @@
         <v>4</v>
       </c>
       <c r="F15">
-        <v>2749.582955752426</v>
+        <v>2749.583825970873</v>
       </c>
       <c r="G15">
-        <v>175758.423609165</v>
+        <v>175758.4663536894</v>
       </c>
       <c r="H15">
-        <v>17.14651048543688</v>
+        <v>17.14651560194174</v>
       </c>
       <c r="I15">
-        <v>4.186526237864077</v>
+        <v>4.186527422330096</v>
       </c>
       <c r="J15">
-        <v>76.66786471359229</v>
+        <v>76.66788515048545</v>
       </c>
       <c r="K15">
-        <v>56057.35619261649</v>
+        <v>56057.36982645148</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +967,22 @@
         <v>4</v>
       </c>
       <c r="F16">
-        <v>2767.735219015626</v>
+        <v>2767.736026027342</v>
       </c>
       <c r="G16">
-        <v>176812.4264097733</v>
+        <v>176812.4650478085</v>
       </c>
       <c r="H16">
-        <v>17.25758500390624</v>
+        <v>17.25758975390625</v>
       </c>
       <c r="I16">
-        <v>4.207702906250001</v>
+        <v>4.207704035156253</v>
       </c>
       <c r="J16">
-        <v>77.12607648437498</v>
+        <v>77.1260947578125</v>
       </c>
       <c r="K16">
-        <v>56393.52032487112</v>
+        <v>56393.53264880473</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +1002,22 @@
         <v>4</v>
       </c>
       <c r="F17">
-        <v>2782.085736125412</v>
+        <v>2782.087102702969</v>
       </c>
       <c r="G17">
-        <v>177445.9042083003</v>
+        <v>177445.96973465</v>
       </c>
       <c r="H17">
-        <v>17.34286068646864</v>
+        <v>17.34286870957096</v>
       </c>
       <c r="I17">
-        <v>4.227455976897693</v>
+        <v>4.22745785478548</v>
       </c>
       <c r="J17">
-        <v>77.47682601650166</v>
+        <v>77.47685703300326</v>
       </c>
       <c r="K17">
-        <v>56595.59024699342</v>
+        <v>56595.61114719472</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1037,22 @@
         <v>12</v>
       </c>
       <c r="F18">
-        <v>2804.382107962856</v>
+        <v>2804.381759239997</v>
       </c>
       <c r="G18">
-        <v>178592.5321503886</v>
+        <v>178592.5213847829</v>
       </c>
       <c r="H18">
-        <v>17.47791432285715</v>
+        <v>17.47791225142856</v>
       </c>
       <c r="I18">
-        <v>4.255724028571428</v>
+        <v>4.255723640000001</v>
       </c>
       <c r="J18">
-        <v>78.01470078857147</v>
+        <v>78.01469633714287</v>
       </c>
       <c r="K18">
-        <v>56961.31208915141</v>
+        <v>56961.30865550281</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1072,22 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>2821.357434064677</v>
+        <v>2821.5366689204</v>
       </c>
       <c r="G19">
-        <v>179458.0998200473</v>
+        <v>179462.5931208184</v>
       </c>
       <c r="H19">
-        <v>17.58192890049751</v>
+        <v>17.58289900248757</v>
       </c>
       <c r="I19">
-        <v>4.278692208955224</v>
+        <v>4.278895522388059</v>
       </c>
       <c r="J19">
-        <v>78.43685347761189</v>
+        <v>78.44095349751245</v>
       </c>
       <c r="K19">
-        <v>57237.39507122642</v>
+        <v>57238.82887631835</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1095,28 +1101,28 @@
         <v>100</v>
       </c>
       <c r="D20">
-        <v>30.24504950495049</v>
+        <v>19.05940594059406</v>
       </c>
       <c r="E20">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>626.8031932970297</v>
+        <v>2714.473841752475</v>
       </c>
       <c r="G20">
-        <v>75100.05764477227</v>
+        <v>173998.5559785842</v>
       </c>
       <c r="H20">
-        <v>4.473733019801982</v>
+        <v>16.93722693069308</v>
       </c>
       <c r="I20">
-        <v>1.007933227722772</v>
+        <v>4.140281594059406</v>
       </c>
       <c r="J20">
-        <v>28.46405665346535</v>
+        <v>75.78058069306931</v>
       </c>
       <c r="K20">
-        <v>23951.06391860396</v>
+        <v>55496.01761603964</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1130,28 +1136,28 @@
         <v>125</v>
       </c>
       <c r="D21">
-        <v>30.5484496124031</v>
+        <v>19.1531007751938</v>
       </c>
       <c r="E21">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F21">
-        <v>647.0546420465115</v>
+        <v>2729.78024951938</v>
       </c>
       <c r="G21">
-        <v>75645.13949543409</v>
+        <v>174743.9037747596</v>
       </c>
       <c r="H21">
-        <v>4.590975550387595</v>
+        <v>17.02983678294573</v>
       </c>
       <c r="I21">
-        <v>1.025740147286822</v>
+        <v>4.160084418604651</v>
       </c>
       <c r="J21">
-        <v>28.78640920155039</v>
+        <v>76.15274293798447</v>
       </c>
       <c r="K21">
-        <v>24124.93908427131</v>
+        <v>55733.75699702325</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1165,28 +1171,28 @@
         <v>150</v>
       </c>
       <c r="D22">
-        <v>30.31535947712418</v>
+        <v>19.13888888888889</v>
       </c>
       <c r="E22">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>646.6552048888888</v>
+        <v>2733.502133771241</v>
       </c>
       <c r="G22">
-        <v>75982.52077864052</v>
+        <v>175010.124742915</v>
       </c>
       <c r="H22">
-        <v>4.601497915032679</v>
+        <v>17.04983803267974</v>
       </c>
       <c r="I22">
-        <v>1.038170183006535</v>
+        <v>4.163964156862745</v>
       </c>
       <c r="J22">
-        <v>28.97479269934639</v>
+        <v>76.29128394117647</v>
       </c>
       <c r="K22">
-        <v>24232.56474332026</v>
+        <v>55818.67271961438</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1200,28 +1206,28 @@
         <v>175</v>
       </c>
       <c r="D23">
-        <v>31.12429378531073</v>
+        <v>19.10169491525424</v>
       </c>
       <c r="E23">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>738.9104365988699</v>
+        <v>2729.878425322034</v>
       </c>
       <c r="G23">
-        <v>78169.41978757625</v>
+        <v>174708.0063056045</v>
       </c>
       <c r="H23">
-        <v>5.091840000000002</v>
+        <v>17.0272553841808</v>
       </c>
       <c r="I23">
-        <v>1.106888542372881</v>
+        <v>4.159455937853104</v>
       </c>
       <c r="J23">
-        <v>30.04364992655367</v>
+        <v>76.16775412429382</v>
       </c>
       <c r="K23">
-        <v>24930.08847761016</v>
+        <v>55722.31750921471</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1235,28 +1241,28 @@
         <v>200</v>
       </c>
       <c r="D24">
-        <v>31.45752427184466</v>
+        <v>19.16383495145631</v>
       </c>
       <c r="E24">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="F24">
-        <v>785.7074081456308</v>
+        <v>2751.611088762137</v>
       </c>
       <c r="G24">
-        <v>79069.6350994612</v>
+        <v>175816.0054187863</v>
       </c>
       <c r="H24">
-        <v>5.338720422330095</v>
+        <v>17.15745047087378</v>
       </c>
       <c r="I24">
-        <v>1.138979504854369</v>
+        <v>4.188797072815533</v>
       </c>
       <c r="J24">
-        <v>30.51226433495145</v>
+        <v>76.70420289320388</v>
       </c>
       <c r="K24">
-        <v>25217.22559504367</v>
+        <v>56075.72538206801</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1270,28 +1276,28 @@
         <v>250</v>
       </c>
       <c r="D25">
-        <v>33.626953125</v>
+        <v>19.296875</v>
       </c>
       <c r="E25">
-        <v>134</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>1045.208439070312</v>
+        <v>2768.903296781247</v>
       </c>
       <c r="G25">
-        <v>85280.73800331639</v>
+        <v>176855.4079330313</v>
       </c>
       <c r="H25">
-        <v>6.717087929687505</v>
+        <v>17.2639422890625</v>
       </c>
       <c r="I25">
-        <v>1.322412640624999</v>
+        <v>4.209071968750002</v>
       </c>
       <c r="J25">
-        <v>33.43933562890626</v>
+        <v>77.14743319140629</v>
       </c>
       <c r="K25">
-        <v>27198.24930930078</v>
+        <v>56407.23000820311</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1305,28 +1311,28 @@
         <v>300</v>
       </c>
       <c r="D26">
-        <v>34.35973597359736</v>
+        <v>19.34075907590759</v>
       </c>
       <c r="E26">
-        <v>177</v>
+        <v>4</v>
       </c>
       <c r="F26">
-        <v>1123.827131712871</v>
+        <v>2783.580499518151</v>
       </c>
       <c r="G26">
-        <v>86801.89363569311</v>
+        <v>177516.8397638052</v>
       </c>
       <c r="H26">
-        <v>7.134570603960396</v>
+        <v>17.35165186468645</v>
       </c>
       <c r="I26">
-        <v>1.372309742574257</v>
+        <v>4.229489006600663</v>
       </c>
       <c r="J26">
-        <v>34.19676460396042</v>
+        <v>77.50880394719474</v>
       </c>
       <c r="K26">
-        <v>27683.42958695049</v>
+        <v>56618.21527108909</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1340,28 +1346,28 @@
         <v>350</v>
       </c>
       <c r="D27">
-        <v>37.06357142857143</v>
+        <v>19.43</v>
       </c>
       <c r="E27">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="F27">
-        <v>1461.962241271429</v>
+        <v>2804.651688217142</v>
       </c>
       <c r="G27">
-        <v>93468.0539955657</v>
+        <v>178625.0101368</v>
       </c>
       <c r="H27">
-        <v>8.887024897142851</v>
+        <v>17.48090996</v>
       </c>
       <c r="I27">
-        <v>1.577582817142857</v>
+        <v>4.256411605714287</v>
       </c>
       <c r="J27">
-        <v>37.29014488285713</v>
+        <v>78.02628730857145</v>
       </c>
       <c r="K27">
-        <v>29809.55900000858</v>
+        <v>56971.66996181427</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1375,28 +1381,28 @@
         <v>400</v>
       </c>
       <c r="D28">
-        <v>40.74875621890547</v>
+        <v>19.48569651741294</v>
       </c>
       <c r="E28">
-        <v>348</v>
+        <v>14</v>
       </c>
       <c r="F28">
-        <v>1903.708470330845</v>
+        <v>2819.866812853233</v>
       </c>
       <c r="G28">
-        <v>102457.8750637861</v>
+        <v>179371.1526825895</v>
       </c>
       <c r="H28">
-        <v>11.18630103233831</v>
+        <v>17.57319897014924</v>
       </c>
       <c r="I28">
-        <v>1.859874074626866</v>
+        <v>4.276364482587061</v>
       </c>
       <c r="J28">
-        <v>41.53243257711444</v>
+        <v>78.39639221393037</v>
       </c>
       <c r="K28">
-        <v>32676.83900352983</v>
+        <v>57209.66259514179</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1410,28 +1416,28 @@
         <v>100</v>
       </c>
       <c r="D29">
-        <v>30.49009900990099</v>
+        <v>19.10643564356436</v>
       </c>
       <c r="E29">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>672.3533709900991</v>
+        <v>2686.865281019802</v>
       </c>
       <c r="G29">
-        <v>75243.50079231686</v>
+        <v>172991.5987023565</v>
       </c>
       <c r="H29">
-        <v>4.728054118811883</v>
+        <v>16.78147783168317</v>
       </c>
       <c r="I29">
-        <v>1.061034405940594</v>
+        <v>4.106590861386136</v>
       </c>
       <c r="J29">
-        <v>28.87799740594059</v>
+        <v>75.31044483168318</v>
       </c>
       <c r="K29">
-        <v>23996.94306223762</v>
+        <v>55174.84036896037</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1445,28 +1451,28 @@
         <v>125</v>
       </c>
       <c r="D30">
-        <v>31.00193798449612</v>
+        <v>19.19186046511628</v>
       </c>
       <c r="E30">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F30">
-        <v>711.183938147287</v>
+        <v>2707.445151751938</v>
       </c>
       <c r="G30">
-        <v>76205.05284696119</v>
+        <v>173889.9598177054</v>
       </c>
       <c r="H30">
-        <v>4.9388282248062</v>
+        <v>16.90185033333333</v>
       </c>
       <c r="I30">
-        <v>1.086995682170542</v>
+        <v>4.13198073643411</v>
       </c>
       <c r="J30">
-        <v>29.36002862015503</v>
+        <v>75.76342620930234</v>
       </c>
       <c r="K30">
-        <v>24303.63605524032</v>
+        <v>55461.3876456589</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1480,28 +1486,28 @@
         <v>150</v>
       </c>
       <c r="D31">
-        <v>30.70751633986928</v>
+        <v>19.1781045751634</v>
       </c>
       <c r="E31">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>706.1905891960782</v>
+        <v>2715.552034274511</v>
       </c>
       <c r="G31">
-        <v>76704.98508246405</v>
+        <v>174362.0650399673</v>
       </c>
       <c r="H31">
-        <v>4.934050601307188</v>
+        <v>16.94853990196079</v>
       </c>
       <c r="I31">
-        <v>1.10442394117647</v>
+        <v>4.142182248366016</v>
       </c>
       <c r="J31">
-        <v>29.64920122222222</v>
+        <v>75.98713803267975</v>
       </c>
       <c r="K31">
-        <v>24463.11985435295</v>
+        <v>55611.96833933335</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1515,28 +1521,28 @@
         <v>175</v>
       </c>
       <c r="D32">
-        <v>31.52824858757062</v>
+        <v>19.13983050847458</v>
       </c>
       <c r="E32">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>789.892771519774</v>
+        <v>2716.996694932204</v>
       </c>
       <c r="G32">
-        <v>78359.21460257631</v>
+        <v>174291.5671240849</v>
       </c>
       <c r="H32">
-        <v>5.367919378531075</v>
+        <v>16.95498242937854</v>
       </c>
       <c r="I32">
-        <v>1.156227209039549</v>
+        <v>4.144139022598869</v>
       </c>
       <c r="J32">
-        <v>30.43396824858758</v>
+        <v>75.97659810169488</v>
       </c>
       <c r="K32">
-        <v>24990.73187467231</v>
+        <v>55589.49119633335</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1550,28 +1556,28 @@
         <v>200</v>
       </c>
       <c r="D33">
-        <v>32.07888349514563</v>
+        <v>19.1881067961165</v>
       </c>
       <c r="E33">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="F33">
-        <v>862.9306017135926</v>
+        <v>2735.150600029125</v>
       </c>
       <c r="G33">
-        <v>80039.80287457281</v>
+        <v>175195.1097650826</v>
       </c>
       <c r="H33">
-        <v>5.751378053398057</v>
+        <v>17.06297990291263</v>
       </c>
       <c r="I33">
-        <v>1.204289825242718</v>
+        <v>4.168020878640776</v>
       </c>
       <c r="J33">
-        <v>31.21651395145631</v>
+        <v>76.40363282524275</v>
       </c>
       <c r="K33">
-        <v>25526.74815439806</v>
+        <v>55877.68230075241</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1585,28 +1591,28 @@
         <v>250</v>
       </c>
       <c r="D34">
-        <v>36.20703125</v>
+        <v>19.310546875</v>
       </c>
       <c r="E34">
-        <v>186</v>
+        <v>6</v>
       </c>
       <c r="F34">
-        <v>1355.262633703125</v>
+        <v>2757.644215890625</v>
       </c>
       <c r="G34">
-        <v>90614.71686572261</v>
+        <v>176403.3736549258</v>
       </c>
       <c r="H34">
-        <v>8.324175874999993</v>
+        <v>17.19876680078125</v>
       </c>
       <c r="I34">
-        <v>1.5202992578125</v>
+        <v>4.19463474609375</v>
       </c>
       <c r="J34">
-        <v>36.13784395703127</v>
+        <v>76.95013699609376</v>
       </c>
       <c r="K34">
-        <v>28899.56694422265</v>
+        <v>56263.05443145313</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1620,28 +1626,28 @@
         <v>300</v>
       </c>
       <c r="D35">
-        <v>35.5503300330033</v>
+        <v>19.35643564356436</v>
       </c>
       <c r="E35">
-        <v>230</v>
+        <v>4</v>
       </c>
       <c r="F35">
-        <v>1261.475950904291</v>
+        <v>2776.037222521455</v>
       </c>
       <c r="G35">
-        <v>89123.77236803964</v>
+        <v>177181.9842296172</v>
       </c>
       <c r="H35">
-        <v>7.85545122112211</v>
+        <v>17.30808683168316</v>
       </c>
       <c r="I35">
-        <v>1.470765676567657</v>
+        <v>4.219786379537953</v>
       </c>
       <c r="J35">
-        <v>35.47469407260724</v>
+        <v>77.37690369636968</v>
       </c>
       <c r="K35">
-        <v>28424.05281854125</v>
+        <v>56511.41825930698</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1655,28 +1661,28 @@
         <v>350</v>
       </c>
       <c r="D36">
-        <v>42.48642857142857</v>
+        <v>19.445</v>
       </c>
       <c r="E36">
-        <v>310</v>
+        <v>14</v>
       </c>
       <c r="F36">
-        <v>2106.895385679999</v>
+        <v>2801.399454254283</v>
       </c>
       <c r="G36">
-        <v>105187.0686837028</v>
+        <v>178464.3763014627</v>
       </c>
       <c r="H36">
-        <v>12.21310797142857</v>
+        <v>17.46114573714287</v>
       </c>
       <c r="I36">
-        <v>1.970183645714286</v>
+        <v>4.252394451428573</v>
       </c>
       <c r="J36">
-        <v>42.90891751999999</v>
+        <v>77.97150580857138</v>
       </c>
       <c r="K36">
-        <v>33547.32462546002</v>
+        <v>56920.44144605999</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1690,28 +1696,28 @@
         <v>400</v>
       </c>
       <c r="D37">
-        <v>51.31716417910448</v>
+        <v>19.49564676616916</v>
       </c>
       <c r="E37">
-        <v>382</v>
+        <v>18</v>
       </c>
       <c r="F37">
-        <v>3185.370379629352</v>
+        <v>2818.555692368159</v>
       </c>
       <c r="G37">
-        <v>125117.9251691393</v>
+        <v>179291.9258002512</v>
       </c>
       <c r="H37">
-        <v>17.75285602736319</v>
+        <v>17.56383575621893</v>
       </c>
       <c r="I37">
-        <v>2.587065437810946</v>
+        <v>4.274539482587065</v>
       </c>
       <c r="J37">
-        <v>52.02130655472637</v>
+        <v>78.38773023383085</v>
       </c>
       <c r="K37">
-        <v>39904.07592854228</v>
+        <v>57184.40169249498</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1725,28 +1731,28 @@
         <v>100</v>
       </c>
       <c r="D38">
-        <v>84.3069306930693</v>
+        <v>30.24504950495049</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F38">
-        <v>7934.830721128716</v>
+        <v>626.8031932970297</v>
       </c>
       <c r="G38">
-        <v>208778.5562788019</v>
+        <v>75100.05764477227</v>
       </c>
       <c r="H38">
-        <v>42.01388793069306</v>
+        <v>4.473733019801982</v>
       </c>
       <c r="I38">
-        <v>5.233841297029704</v>
+        <v>1.007933227722772</v>
       </c>
       <c r="J38">
-        <v>90.05228652475246</v>
+        <v>28.46405665346535</v>
       </c>
       <c r="K38">
-        <v>66586.6988482772</v>
+        <v>23951.06391860396</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1760,28 +1766,28 @@
         <v>125</v>
       </c>
       <c r="D39">
-        <v>86.62403100775194</v>
+        <v>30.5484496124031</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F39">
-        <v>8208.474941139535</v>
+        <v>647.0546420465115</v>
       </c>
       <c r="G39">
-        <v>213780.607068186</v>
+        <v>75645.13949543409</v>
       </c>
       <c r="H39">
-        <v>43.42940107751939</v>
+        <v>4.590975550387595</v>
       </c>
       <c r="I39">
-        <v>5.388779310077519</v>
+        <v>1.025740147286822</v>
       </c>
       <c r="J39">
-        <v>92.38632472093022</v>
+        <v>28.78640920155039</v>
       </c>
       <c r="K39">
-        <v>68182.06674941085</v>
+        <v>24124.93908427131</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1795,28 +1801,28 @@
         <v>150</v>
       </c>
       <c r="D40">
-        <v>87.29411764705883</v>
+        <v>30.31535947712418</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F40">
-        <v>8301.115343849673</v>
+        <v>646.6552048888888</v>
       </c>
       <c r="G40">
-        <v>215657.7525341699</v>
+        <v>75982.52077864052</v>
       </c>
       <c r="H40">
-        <v>43.90080737254901</v>
+        <v>4.601497915032679</v>
       </c>
       <c r="I40">
-        <v>5.444524156862746</v>
+        <v>1.038170183006535</v>
       </c>
       <c r="J40">
-        <v>93.22038313725488</v>
+        <v>28.97479269934639</v>
       </c>
       <c r="K40">
-        <v>68780.75873451632</v>
+        <v>24232.56474332026</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1830,28 +1836,28 @@
         <v>175</v>
       </c>
       <c r="D41">
-        <v>87.85310734463278</v>
+        <v>31.12429378531073</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F41">
-        <v>8341.190249378531</v>
+        <v>738.9104365988699</v>
       </c>
       <c r="G41">
-        <v>216380.5614182091</v>
+        <v>78169.41978757625</v>
       </c>
       <c r="H41">
-        <v>44.11336677401131</v>
+        <v>5.091840000000002</v>
       </c>
       <c r="I41">
-        <v>5.468546384180788</v>
+        <v>1.106888542372881</v>
       </c>
       <c r="J41">
-        <v>93.59815298870058</v>
+        <v>30.04364992655367</v>
       </c>
       <c r="K41">
-        <v>69011.30693025989</v>
+        <v>24930.08847761016</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1865,28 +1871,28 @@
         <v>200</v>
       </c>
       <c r="D42">
-        <v>92.05461165048544</v>
+        <v>31.45752427184466</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F42">
-        <v>8893.672351393203</v>
+        <v>785.7074081456308</v>
       </c>
       <c r="G42">
-        <v>226850.1922506214</v>
+        <v>79069.6350994612</v>
       </c>
       <c r="H42">
-        <v>46.96123499029126</v>
+        <v>5.338720422330095</v>
       </c>
       <c r="I42">
-        <v>5.794651330097089</v>
+        <v>1.138979504854369</v>
       </c>
       <c r="J42">
-        <v>98.44748216019413</v>
+        <v>30.51226433495145</v>
       </c>
       <c r="K42">
-        <v>72350.52051614567</v>
+        <v>25217.22559504367</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1900,28 +1906,28 @@
         <v>250</v>
       </c>
       <c r="D43">
-        <v>93.556640625</v>
+        <v>33.626953125</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="F43">
-        <v>9042.149435125002</v>
+        <v>1045.208439070312</v>
       </c>
       <c r="G43">
-        <v>229983.4872098554</v>
+        <v>85280.73800331639</v>
       </c>
       <c r="H43">
-        <v>47.74318146093746</v>
+        <v>6.717087929687505</v>
       </c>
       <c r="I43">
-        <v>5.88370444140625</v>
+        <v>1.322412640624999</v>
       </c>
       <c r="J43">
-        <v>99.89956594140618</v>
+        <v>33.43933562890626</v>
       </c>
       <c r="K43">
-        <v>73349.86244835156</v>
+        <v>27198.24930930078</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1935,28 +1941,28 @@
         <v>300</v>
       </c>
       <c r="D44">
-        <v>90.98514851485149</v>
+        <v>34.35973597359736</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="F44">
-        <v>8651.942095521455</v>
+        <v>1123.827131712871</v>
       </c>
       <c r="G44">
-        <v>222875.6936962706</v>
+        <v>86801.89363569311</v>
       </c>
       <c r="H44">
-        <v>45.74084809900994</v>
+        <v>7.134570603960396</v>
       </c>
       <c r="I44">
-        <v>5.657882706270631</v>
+        <v>1.372309742574257</v>
       </c>
       <c r="J44">
-        <v>96.64790666336631</v>
+        <v>34.19676460396042</v>
       </c>
       <c r="K44">
-        <v>71082.89751388122</v>
+        <v>27683.42958695049</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1970,28 +1976,28 @@
         <v>350</v>
       </c>
       <c r="D45">
-        <v>92.89714285714285</v>
+        <v>37.06357142857143</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="F45">
-        <v>8860.942044874288</v>
+        <v>1461.962241271429</v>
       </c>
       <c r="G45">
-        <v>227108.5624947115</v>
+        <v>93468.0539955657</v>
       </c>
       <c r="H45">
-        <v>46.83242439142857</v>
+        <v>8.887024897142851</v>
       </c>
       <c r="I45">
-        <v>5.787775648571425</v>
+        <v>1.577582817142857</v>
       </c>
       <c r="J45">
-        <v>98.66135007428571</v>
+        <v>37.29014488285713</v>
       </c>
       <c r="K45">
-        <v>72432.96184662284</v>
+        <v>29809.55900000858</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2005,27 +2011,657 @@
         <v>400</v>
       </c>
       <c r="D46">
+        <v>40.74875621890547</v>
+      </c>
+      <c r="E46">
+        <v>348</v>
+      </c>
+      <c r="F46">
+        <v>1903.708470330845</v>
+      </c>
+      <c r="G46">
+        <v>102457.8750637861</v>
+      </c>
+      <c r="H46">
+        <v>11.18630103233831</v>
+      </c>
+      <c r="I46">
+        <v>1.859874074626866</v>
+      </c>
+      <c r="J46">
+        <v>41.53243257711444</v>
+      </c>
+      <c r="K46">
+        <v>32676.83900352983</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47">
+        <v>100</v>
+      </c>
+      <c r="D47">
+        <v>30.49009900990099</v>
+      </c>
+      <c r="E47">
+        <v>12</v>
+      </c>
+      <c r="F47">
+        <v>672.3533709900991</v>
+      </c>
+      <c r="G47">
+        <v>75243.50079231686</v>
+      </c>
+      <c r="H47">
+        <v>4.728054118811883</v>
+      </c>
+      <c r="I47">
+        <v>1.061034405940594</v>
+      </c>
+      <c r="J47">
+        <v>28.87799740594059</v>
+      </c>
+      <c r="K47">
+        <v>23996.94306223762</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48">
+        <v>125</v>
+      </c>
+      <c r="D48">
+        <v>31.00193798449612</v>
+      </c>
+      <c r="E48">
+        <v>16</v>
+      </c>
+      <c r="F48">
+        <v>711.183938147287</v>
+      </c>
+      <c r="G48">
+        <v>76205.05284696119</v>
+      </c>
+      <c r="H48">
+        <v>4.9388282248062</v>
+      </c>
+      <c r="I48">
+        <v>1.086995682170542</v>
+      </c>
+      <c r="J48">
+        <v>29.36002862015503</v>
+      </c>
+      <c r="K48">
+        <v>24303.63605524032</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49">
+        <v>150</v>
+      </c>
+      <c r="D49">
+        <v>30.70751633986928</v>
+      </c>
+      <c r="E49">
+        <v>12</v>
+      </c>
+      <c r="F49">
+        <v>706.1905891960782</v>
+      </c>
+      <c r="G49">
+        <v>76704.98508246405</v>
+      </c>
+      <c r="H49">
+        <v>4.934050601307188</v>
+      </c>
+      <c r="I49">
+        <v>1.10442394117647</v>
+      </c>
+      <c r="J49">
+        <v>29.64920122222222</v>
+      </c>
+      <c r="K49">
+        <v>24463.11985435295</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50">
+        <v>175</v>
+      </c>
+      <c r="D50">
+        <v>31.52824858757062</v>
+      </c>
+      <c r="E50">
+        <v>42</v>
+      </c>
+      <c r="F50">
+        <v>789.892771519774</v>
+      </c>
+      <c r="G50">
+        <v>78359.21460257631</v>
+      </c>
+      <c r="H50">
+        <v>5.367919378531075</v>
+      </c>
+      <c r="I50">
+        <v>1.156227209039549</v>
+      </c>
+      <c r="J50">
+        <v>30.43396824858758</v>
+      </c>
+      <c r="K50">
+        <v>24990.73187467231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51">
+        <v>200</v>
+      </c>
+      <c r="D51">
+        <v>32.07888349514563</v>
+      </c>
+      <c r="E51">
+        <v>70</v>
+      </c>
+      <c r="F51">
+        <v>862.9306017135926</v>
+      </c>
+      <c r="G51">
+        <v>80039.80287457281</v>
+      </c>
+      <c r="H51">
+        <v>5.751378053398057</v>
+      </c>
+      <c r="I51">
+        <v>1.204289825242718</v>
+      </c>
+      <c r="J51">
+        <v>31.21651395145631</v>
+      </c>
+      <c r="K51">
+        <v>25526.74815439806</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52">
+        <v>250</v>
+      </c>
+      <c r="D52">
+        <v>36.20703125</v>
+      </c>
+      <c r="E52">
+        <v>186</v>
+      </c>
+      <c r="F52">
+        <v>1355.262633703125</v>
+      </c>
+      <c r="G52">
+        <v>90614.71686572261</v>
+      </c>
+      <c r="H52">
+        <v>8.324175874999993</v>
+      </c>
+      <c r="I52">
+        <v>1.5202992578125</v>
+      </c>
+      <c r="J52">
+        <v>36.13784395703127</v>
+      </c>
+      <c r="K52">
+        <v>28899.56694422265</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53">
+        <v>300</v>
+      </c>
+      <c r="D53">
+        <v>35.5503300330033</v>
+      </c>
+      <c r="E53">
+        <v>230</v>
+      </c>
+      <c r="F53">
+        <v>1261.475950904291</v>
+      </c>
+      <c r="G53">
+        <v>89123.77236803964</v>
+      </c>
+      <c r="H53">
+        <v>7.85545122112211</v>
+      </c>
+      <c r="I53">
+        <v>1.470765676567657</v>
+      </c>
+      <c r="J53">
+        <v>35.47469407260724</v>
+      </c>
+      <c r="K53">
+        <v>28424.05281854125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54">
+        <v>350</v>
+      </c>
+      <c r="D54">
+        <v>42.48642857142857</v>
+      </c>
+      <c r="E54">
+        <v>310</v>
+      </c>
+      <c r="F54">
+        <v>2106.895385679999</v>
+      </c>
+      <c r="G54">
+        <v>105187.0686837028</v>
+      </c>
+      <c r="H54">
+        <v>12.21310797142857</v>
+      </c>
+      <c r="I54">
+        <v>1.970183645714286</v>
+      </c>
+      <c r="J54">
+        <v>42.90891751999999</v>
+      </c>
+      <c r="K54">
+        <v>33547.32462546002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55">
+        <v>400</v>
+      </c>
+      <c r="D55">
+        <v>51.31716417910448</v>
+      </c>
+      <c r="E55">
+        <v>382</v>
+      </c>
+      <c r="F55">
+        <v>3185.370379629352</v>
+      </c>
+      <c r="G55">
+        <v>125117.9251691393</v>
+      </c>
+      <c r="H55">
+        <v>17.75285602736319</v>
+      </c>
+      <c r="I55">
+        <v>2.587065437810946</v>
+      </c>
+      <c r="J55">
+        <v>52.02130655472637</v>
+      </c>
+      <c r="K55">
+        <v>39904.07592854228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56">
+        <v>100</v>
+      </c>
+      <c r="D56">
+        <v>84.3069306930693</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>7934.830721128716</v>
+      </c>
+      <c r="G56">
+        <v>208778.5562788019</v>
+      </c>
+      <c r="H56">
+        <v>42.01388793069306</v>
+      </c>
+      <c r="I56">
+        <v>5.233841297029704</v>
+      </c>
+      <c r="J56">
+        <v>90.05228652475246</v>
+      </c>
+      <c r="K56">
+        <v>66586.6988482772</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57">
+        <v>125</v>
+      </c>
+      <c r="D57">
+        <v>86.62403100775194</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>8208.474941139535</v>
+      </c>
+      <c r="G57">
+        <v>213780.607068186</v>
+      </c>
+      <c r="H57">
+        <v>43.42940107751939</v>
+      </c>
+      <c r="I57">
+        <v>5.388779310077519</v>
+      </c>
+      <c r="J57">
+        <v>92.38632472093022</v>
+      </c>
+      <c r="K57">
+        <v>68182.06674941085</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58">
+        <v>150</v>
+      </c>
+      <c r="D58">
+        <v>87.29411764705883</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>8301.115343849673</v>
+      </c>
+      <c r="G58">
+        <v>215657.7525341699</v>
+      </c>
+      <c r="H58">
+        <v>43.90080737254901</v>
+      </c>
+      <c r="I58">
+        <v>5.444524156862746</v>
+      </c>
+      <c r="J58">
+        <v>93.22038313725488</v>
+      </c>
+      <c r="K58">
+        <v>68780.75873451632</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59">
+        <v>175</v>
+      </c>
+      <c r="D59">
+        <v>87.85310734463278</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>8341.190249378531</v>
+      </c>
+      <c r="G59">
+        <v>216380.5614182091</v>
+      </c>
+      <c r="H59">
+        <v>44.11336677401131</v>
+      </c>
+      <c r="I59">
+        <v>5.468546384180788</v>
+      </c>
+      <c r="J59">
+        <v>93.59815298870058</v>
+      </c>
+      <c r="K59">
+        <v>69011.30693025989</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60">
+        <v>200</v>
+      </c>
+      <c r="D60">
+        <v>92.05461165048544</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>8893.672351393203</v>
+      </c>
+      <c r="G60">
+        <v>226850.1922506214</v>
+      </c>
+      <c r="H60">
+        <v>46.96123499029126</v>
+      </c>
+      <c r="I60">
+        <v>5.794651330097089</v>
+      </c>
+      <c r="J60">
+        <v>98.44748216019413</v>
+      </c>
+      <c r="K60">
+        <v>72350.52051614567</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61">
+        <v>250</v>
+      </c>
+      <c r="D61">
+        <v>93.556640625</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>9042.149435125002</v>
+      </c>
+      <c r="G61">
+        <v>229983.4872098554</v>
+      </c>
+      <c r="H61">
+        <v>47.74318146093746</v>
+      </c>
+      <c r="I61">
+        <v>5.88370444140625</v>
+      </c>
+      <c r="J61">
+        <v>99.89956594140618</v>
+      </c>
+      <c r="K61">
+        <v>73349.86244835156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62">
+        <v>300</v>
+      </c>
+      <c r="D62">
+        <v>90.98514851485149</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>8651.942095521455</v>
+      </c>
+      <c r="G62">
+        <v>222875.6936962706</v>
+      </c>
+      <c r="H62">
+        <v>45.74084809900994</v>
+      </c>
+      <c r="I62">
+        <v>5.657882706270631</v>
+      </c>
+      <c r="J62">
+        <v>96.64790666336631</v>
+      </c>
+      <c r="K62">
+        <v>71082.89751388122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63">
+        <v>350</v>
+      </c>
+      <c r="D63">
+        <v>92.89714285714285</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>8860.942044874288</v>
+      </c>
+      <c r="G63">
+        <v>227108.5624947115</v>
+      </c>
+      <c r="H63">
+        <v>46.83242439142857</v>
+      </c>
+      <c r="I63">
+        <v>5.787775648571425</v>
+      </c>
+      <c r="J63">
+        <v>98.66135007428571</v>
+      </c>
+      <c r="K63">
+        <v>72432.96184662284</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64">
+        <v>400</v>
+      </c>
+      <c r="D64">
         <v>104.2904228855721</v>
       </c>
-      <c r="E46">
+      <c r="E64">
         <v>0</v>
       </c>
-      <c r="F46">
+      <c r="F64">
         <v>10369.48440611443</v>
       </c>
-      <c r="G46">
+      <c r="G64">
         <v>254740.583439766</v>
       </c>
-      <c r="H46">
+      <c r="H64">
         <v>54.56990244029855</v>
       </c>
-      <c r="I46">
+      <c r="I64">
         <v>6.645526631840794</v>
       </c>
-      <c r="J46">
+      <c r="J64">
         <v>111.2651490373134</v>
       </c>
-      <c r="K46">
+      <c r="K64">
         <v>81245.91169781092</v>
       </c>
     </row>
